--- a/sequences/buffer_encoding_retrievalFeedback.xlsx
+++ b/sequences/buffer_encoding_retrievalFeedback.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\Nextcloud\Masterthesis_EMS-TMR\EMS-TMR-Experiment\sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF17D714-C303-4E9E-9142-F1F8190E12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7300F-6986-4681-BE86-A891D0092541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{5D04B936-EE21-486B-9B3A-6892E2A5AB88}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>image</t>
   </si>
@@ -53,27 +53,6 @@
     <t>flower</t>
   </si>
   <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>flüchten</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
     <t>dog/dog275.png</t>
   </si>
   <si>
@@ -116,18 +95,6 @@
     <t>cued</t>
   </si>
   <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>image2</t>
-  </si>
-  <si>
-    <t>image3</t>
-  </si>
-  <si>
-    <t>image4</t>
-  </si>
-  <si>
     <t>face/face273.jpg</t>
   </si>
   <si>
@@ -197,7 +164,67 @@
     <t>flower/flower269.png</t>
   </si>
   <si>
-    <t>klauen</t>
+    <t>anrufen</t>
+  </si>
+  <si>
+    <t>verkaufen</t>
+  </si>
+  <si>
+    <t>verletzen</t>
+  </si>
+  <si>
+    <t>heiraten</t>
+  </si>
+  <si>
+    <t>gefallen</t>
+  </si>
+  <si>
+    <t>gewinnen</t>
+  </si>
+  <si>
+    <t>bestimmen</t>
+  </si>
+  <si>
+    <t>versprechen</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>image_top</t>
+  </si>
+  <si>
+    <t>image_right</t>
+  </si>
+  <si>
+    <t>image_bottom</t>
+  </si>
+  <si>
+    <t>image_left</t>
+  </si>
+  <si>
+    <t>buffer/dog/dog275.png</t>
+  </si>
+  <si>
+    <t>buffer/house/house270.png</t>
+  </si>
+  <si>
+    <t>buffer/flower/flower270.png</t>
+  </si>
+  <si>
+    <t>buffer/face/face215.png</t>
+  </si>
+  <si>
+    <t>buffer/dog/dog276.png</t>
+  </si>
+  <si>
+    <t>buffer/house/house271.png</t>
+  </si>
+  <si>
+    <t>buffer/face/face271.png</t>
+  </si>
+  <si>
+    <t>buffer/flower/flower271.png</t>
   </si>
 </sst>
 </file>
@@ -229,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -252,13 +279,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -595,15 +636,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70512861-F1A8-4F2C-9AE9-28B9B5383B81}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -615,305 +656,332 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>1.015820934783024</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>1.0716902907541741</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>1.047075324721138</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>1.1351010053757959</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>1.101215866370167</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>1.232576476035504</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="L8">
+        <v>1.236406268413865</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="L9">
+        <v>1.0490166754144501</v>
       </c>
     </row>
   </sheetData>
